--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/LocalizationDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/LocalizationDataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FAACC0-9575-42CE-A12A-7B265C1CB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207B7097-6C70-4D34-AE62-6EF059A980B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <r>
       <t>#</t>
@@ -480,6 +480,14 @@
   </si>
   <si>
     <t>Korean</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1380,7 +1388,7 @@
         <v>90</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
@@ -1391,7 +1399,7 @@
         <v>91</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
